--- a/Code/Results/Cases/Case_4_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9980170704476062</v>
+        <v>1.04036098626811</v>
       </c>
       <c r="D2">
-        <v>1.01924886427843</v>
+        <v>1.045323154005079</v>
       </c>
       <c r="E2">
-        <v>1.006206057095401</v>
+        <v>1.044017075773781</v>
       </c>
       <c r="F2">
-        <v>1.023467443450942</v>
+        <v>1.054369798885633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043332311942959</v>
+        <v>1.037319484472095</v>
       </c>
       <c r="J2">
-        <v>1.020257252786165</v>
+        <v>1.045448009521716</v>
       </c>
       <c r="K2">
-        <v>1.030446390332208</v>
+        <v>1.048091716843552</v>
       </c>
       <c r="L2">
-        <v>1.017579603518884</v>
+        <v>1.046789310677181</v>
       </c>
       <c r="M2">
-        <v>1.034609241223803</v>
+        <v>1.057113197572296</v>
       </c>
       <c r="N2">
-        <v>1.009904628446512</v>
+        <v>1.018938139772754</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004366237454838</v>
+        <v>1.041664731200635</v>
       </c>
       <c r="D3">
-        <v>1.023917681903203</v>
+        <v>1.046295525882199</v>
       </c>
       <c r="E3">
-        <v>1.012037233810229</v>
+        <v>1.045270203998451</v>
       </c>
       <c r="F3">
-        <v>1.028727522777426</v>
+        <v>1.055487872252348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04497516464373</v>
+        <v>1.037581422789206</v>
       </c>
       <c r="J3">
-        <v>1.024738578014767</v>
+        <v>1.046395572104535</v>
       </c>
       <c r="K3">
-        <v>1.034253411249134</v>
+        <v>1.048875086737022</v>
       </c>
       <c r="L3">
-        <v>1.022518378321198</v>
+        <v>1.04785243758687</v>
       </c>
       <c r="M3">
-        <v>1.039005564812748</v>
+        <v>1.058043721382023</v>
       </c>
       <c r="N3">
-        <v>1.011474357812637</v>
+        <v>1.01926265019584</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008368245260207</v>
+        <v>1.042507907013803</v>
       </c>
       <c r="D4">
-        <v>1.02686343081504</v>
+        <v>1.046924163470993</v>
       </c>
       <c r="E4">
-        <v>1.015718755552075</v>
+        <v>1.046080991296465</v>
       </c>
       <c r="F4">
-        <v>1.032048652022762</v>
+        <v>1.056211065048608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045999348512019</v>
+        <v>1.037749336771969</v>
       </c>
       <c r="J4">
-        <v>1.027560286025723</v>
+        <v>1.047007808971803</v>
       </c>
       <c r="K4">
-        <v>1.03664809829395</v>
+        <v>1.049380812403989</v>
       </c>
       <c r="L4">
-        <v>1.025631099637071</v>
+        <v>1.048539726702988</v>
       </c>
       <c r="M4">
-        <v>1.041775073199747</v>
+        <v>1.05864497005411</v>
       </c>
       <c r="N4">
-        <v>1.012461641076845</v>
+        <v>1.019472075284093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01002646449993</v>
+        <v>1.042862277363653</v>
       </c>
       <c r="D5">
-        <v>1.028084588113369</v>
+        <v>1.047188311979421</v>
       </c>
       <c r="E5">
-        <v>1.017245565464543</v>
+        <v>1.046421831873959</v>
       </c>
       <c r="F5">
-        <v>1.0334259930726</v>
+        <v>1.056515031065628</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046420936147665</v>
+        <v>1.037819550638078</v>
       </c>
       <c r="J5">
-        <v>1.028728682955058</v>
+        <v>1.047264979983705</v>
       </c>
       <c r="K5">
-        <v>1.037639064668698</v>
+        <v>1.04959314151071</v>
       </c>
       <c r="L5">
-        <v>1.026920717284081</v>
+        <v>1.048828515571004</v>
       </c>
       <c r="M5">
-        <v>1.042922144171665</v>
+        <v>1.058897530100245</v>
       </c>
       <c r="N5">
-        <v>1.012870168594384</v>
+        <v>1.01955998530304</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010303500419891</v>
+        <v>1.042921771889431</v>
       </c>
       <c r="D6">
-        <v>1.028288637036908</v>
+        <v>1.047232656051278</v>
       </c>
       <c r="E6">
-        <v>1.017500726702488</v>
+        <v>1.04647905973366</v>
       </c>
       <c r="F6">
-        <v>1.033656173331216</v>
+        <v>1.0565660645801</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046491204965608</v>
+        <v>1.037831317752486</v>
       </c>
       <c r="J6">
-        <v>1.028923838231153</v>
+        <v>1.047308147673457</v>
       </c>
       <c r="K6">
-        <v>1.037804547270597</v>
+        <v>1.049628776243469</v>
       </c>
       <c r="L6">
-        <v>1.027136162322273</v>
+        <v>1.048876995907549</v>
       </c>
       <c r="M6">
-        <v>1.043113753575356</v>
+        <v>1.058939924073876</v>
       </c>
       <c r="N6">
-        <v>1.012938387275325</v>
+        <v>1.019574738040396</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008390496090305</v>
+        <v>1.042512642519671</v>
       </c>
       <c r="D7">
-        <v>1.026879814698209</v>
+        <v>1.046927693548218</v>
       </c>
       <c r="E7">
-        <v>1.015739237671465</v>
+        <v>1.046085545678461</v>
       </c>
       <c r="F7">
-        <v>1.032067129104562</v>
+        <v>1.056215126907682</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046005016659104</v>
+        <v>1.037750276454477</v>
       </c>
       <c r="J7">
-        <v>1.027575967286058</v>
+        <v>1.047011246139385</v>
       </c>
       <c r="K7">
-        <v>1.036661400684036</v>
+        <v>1.049383650646342</v>
       </c>
       <c r="L7">
-        <v>1.025648404967932</v>
+        <v>1.048543586090756</v>
       </c>
       <c r="M7">
-        <v>1.041790467135863</v>
+        <v>1.058648345576949</v>
       </c>
       <c r="N7">
-        <v>1.012467125127531</v>
+        <v>1.019473250461193</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00018558587278</v>
+        <v>1.04080168484398</v>
       </c>
       <c r="D8">
-        <v>1.020842794175129</v>
+        <v>1.045651886796342</v>
       </c>
       <c r="E8">
-        <v>1.008196352565789</v>
+        <v>1.044440592398926</v>
       </c>
       <c r="F8">
-        <v>1.025262746620987</v>
+        <v>1.054747715074198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043895767256368</v>
+        <v>1.037408334720537</v>
       </c>
       <c r="J8">
-        <v>1.021788406048102</v>
+        <v>1.045768430166127</v>
       </c>
       <c r="K8">
-        <v>1.031747648124792</v>
+        <v>1.048356702870511</v>
       </c>
       <c r="L8">
-        <v>1.019266431964237</v>
+        <v>1.047148730129633</v>
       </c>
       <c r="M8">
-        <v>1.036111054846114</v>
+        <v>1.057427851979467</v>
       </c>
       <c r="N8">
-        <v>1.010441189571073</v>
+        <v>1.01904792480516</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9848529363391015</v>
+        <v>1.037783287892882</v>
       </c>
       <c r="D9">
-        <v>1.009589714439729</v>
+        <v>1.043399459913415</v>
       </c>
       <c r="E9">
-        <v>0.9941523434235343</v>
+        <v>1.041541324112518</v>
       </c>
       <c r="F9">
-        <v>1.012597478050546</v>
+        <v>1.052159761454409</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039865716931501</v>
+        <v>1.036793683662754</v>
       </c>
       <c r="J9">
-        <v>1.010952153499524</v>
+        <v>1.043571451920313</v>
       </c>
       <c r="K9">
-        <v>1.022529097912856</v>
+        <v>1.04653808714449</v>
       </c>
       <c r="L9">
-        <v>1.007341012648851</v>
+        <v>1.044685930710315</v>
       </c>
       <c r="M9">
-        <v>1.025489423661305</v>
+        <v>1.055270509724927</v>
       </c>
       <c r="N9">
-        <v>1.006639695028393</v>
+        <v>1.018294172452663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9739503555225525</v>
+        <v>1.035768485714018</v>
       </c>
       <c r="D10">
-        <v>1.001615074533608</v>
+        <v>1.041894863266774</v>
       </c>
       <c r="E10">
-        <v>0.9842058843144241</v>
+        <v>1.03960788397022</v>
       </c>
       <c r="F10">
-        <v>1.003633662911422</v>
+        <v>1.050432878596051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036944201632086</v>
+        <v>1.036375743017186</v>
       </c>
       <c r="J10">
-        <v>1.003237034701024</v>
+        <v>1.042101982143152</v>
       </c>
       <c r="K10">
-        <v>1.015955229411959</v>
+        <v>1.045319531562788</v>
       </c>
       <c r="L10">
-        <v>0.9988662845484568</v>
+        <v>1.043040641333361</v>
       </c>
       <c r="M10">
-        <v>1.017937618925017</v>
+        <v>1.053827690541845</v>
       </c>
       <c r="N10">
-        <v>1.003928550442481</v>
+        <v>1.017788761611106</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9690443030303508</v>
+        <v>1.034895406270788</v>
       </c>
       <c r="D11">
-        <v>0.998034929671916</v>
+        <v>1.041242628320379</v>
       </c>
       <c r="E11">
-        <v>0.9797407342159776</v>
+        <v>1.03877050627312</v>
       </c>
       <c r="F11">
-        <v>0.9996120132004571</v>
+        <v>1.049684718977425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035617326603215</v>
+        <v>1.03619282357129</v>
       </c>
       <c r="J11">
-        <v>0.9997640895586891</v>
+        <v>1.04146451408124</v>
       </c>
       <c r="K11">
-        <v>1.01299399973272</v>
+        <v>1.044790404771682</v>
       </c>
       <c r="L11">
-        <v>0.9950550981252224</v>
+        <v>1.042327369396024</v>
       </c>
       <c r="M11">
-        <v>1.014541250095151</v>
+        <v>1.053201821500687</v>
       </c>
       <c r="N11">
-        <v>1.002707292369686</v>
+        <v>1.01756921486299</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9671918848188794</v>
+        <v>1.03457100296521</v>
       </c>
       <c r="D12">
-        <v>0.9966845826696581</v>
+        <v>1.041000246893529</v>
       </c>
       <c r="E12">
-        <v>0.9780565059664468</v>
+        <v>1.038459435893605</v>
       </c>
       <c r="F12">
-        <v>0.9980955126122032</v>
+        <v>1.049406755601509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035114587883982</v>
+        <v>1.036124585673831</v>
       </c>
       <c r="J12">
-        <v>0.9984527019031124</v>
+        <v>1.041227550517587</v>
       </c>
       <c r="K12">
-        <v>1.011875577687787</v>
+        <v>1.044593638617037</v>
       </c>
       <c r="L12">
-        <v>0.9936165397120608</v>
+        <v>1.042062297808667</v>
       </c>
       <c r="M12">
-        <v>1.013259290777317</v>
+        <v>1.05296917566062</v>
       </c>
       <c r="N12">
-        <v>1.002246039912451</v>
+        <v>1.0174875594283</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9675906357591577</v>
+        <v>1.03464059328924</v>
       </c>
       <c r="D13">
-        <v>0.9969751899548964</v>
+        <v>1.041052243646868</v>
       </c>
       <c r="E13">
-        <v>0.9784189730292453</v>
+        <v>1.038526163000685</v>
       </c>
       <c r="F13">
-        <v>0.9984218611683758</v>
+        <v>1.049466382603372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035222884171169</v>
+        <v>1.036139236226692</v>
       </c>
       <c r="J13">
-        <v>0.9987349926090688</v>
+        <v>1.041278388172411</v>
       </c>
       <c r="K13">
-        <v>1.01211634134364</v>
+        <v>1.04463585583357</v>
       </c>
       <c r="L13">
-        <v>0.993926180613708</v>
+        <v>1.042119162520585</v>
       </c>
       <c r="M13">
-        <v>1.013535222639868</v>
+        <v>1.053019086719674</v>
       </c>
       <c r="N13">
-        <v>1.002345333938103</v>
+        <v>1.01750507960495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9688918094566932</v>
+        <v>1.034868593111414</v>
       </c>
       <c r="D14">
-        <v>0.9979237370109549</v>
+        <v>1.041222595298791</v>
       </c>
       <c r="E14">
-        <v>0.9796020507743166</v>
+        <v>1.038744793749669</v>
       </c>
       <c r="F14">
-        <v>0.9994871313711929</v>
+        <v>1.049661743748415</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035575975194867</v>
+        <v>1.036187188996452</v>
       </c>
       <c r="J14">
-        <v>0.999656135336371</v>
+        <v>1.041444930276651</v>
       </c>
       <c r="K14">
-        <v>1.012901935538957</v>
+        <v>1.044774144619115</v>
       </c>
       <c r="L14">
-        <v>0.9949366640108596</v>
+        <v>1.04230546117707</v>
       </c>
       <c r="M14">
-        <v>1.014435707696593</v>
+        <v>1.05318259440755</v>
       </c>
       <c r="N14">
-        <v>1.002669323769772</v>
+        <v>1.017562467365963</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9696894458443882</v>
+        <v>1.03500905759316</v>
       </c>
       <c r="D15">
-        <v>0.9985054034908486</v>
+        <v>1.041327539630857</v>
       </c>
       <c r="E15">
-        <v>0.980327522035254</v>
+        <v>1.038879495164492</v>
       </c>
       <c r="F15">
-        <v>1.000140423102307</v>
+        <v>1.049782103703609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035792198639588</v>
+        <v>1.036216695370388</v>
       </c>
       <c r="J15">
-        <v>1.000220800577089</v>
+        <v>1.041547518495541</v>
       </c>
       <c r="K15">
-        <v>1.013383476161325</v>
+        <v>1.044859319044176</v>
       </c>
       <c r="L15">
-        <v>0.9955561676843228</v>
+        <v>1.042420228533719</v>
       </c>
       <c r="M15">
-        <v>1.014987778854346</v>
+        <v>1.053283314272143</v>
       </c>
       <c r="N15">
-        <v>1.00286791818718</v>
+        <v>1.017597811791327</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9742718644003117</v>
+        <v>1.035826414937871</v>
       </c>
       <c r="D16">
-        <v>1.001849880916962</v>
+        <v>1.041938134307178</v>
       </c>
       <c r="E16">
-        <v>0.9844987298836174</v>
+        <v>1.03966345379456</v>
       </c>
       <c r="F16">
-        <v>1.003897477929517</v>
+        <v>1.050482522695609</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037030910298412</v>
+        <v>1.036387841664373</v>
       </c>
       <c r="J16">
-        <v>1.00346461082931</v>
+        <v>1.042144263761941</v>
       </c>
       <c r="K16">
-        <v>1.01614923553142</v>
+        <v>1.045354616531322</v>
       </c>
       <c r="L16">
-        <v>0.9991161012180045</v>
+        <v>1.043087960678111</v>
       </c>
       <c r="M16">
-        <v>1.018160244992557</v>
+        <v>1.053869203655861</v>
       </c>
       <c r="N16">
-        <v>1.004008561771127</v>
+        <v>1.017803317382514</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9770951915668771</v>
+        <v>1.036338942906365</v>
       </c>
       <c r="D17">
-        <v>1.003912797799181</v>
+        <v>1.042320946149929</v>
       </c>
       <c r="E17">
-        <v>0.9870715693231845</v>
+        <v>1.040155158471306</v>
       </c>
       <c r="F17">
-        <v>1.00621554350806</v>
+        <v>1.050921766190934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037790969176626</v>
+        <v>1.036494675047506</v>
       </c>
       <c r="J17">
-        <v>1.005462942082883</v>
+        <v>1.042518269120808</v>
       </c>
       <c r="K17">
-        <v>1.017852567561629</v>
+        <v>1.045664904846563</v>
       </c>
       <c r="L17">
-        <v>1.001310142726996</v>
+        <v>1.043506581651837</v>
       </c>
       <c r="M17">
-        <v>1.020115462399712</v>
+        <v>1.054236415554004</v>
       </c>
       <c r="N17">
-        <v>1.004711043371495</v>
+        <v>1.017932037532169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9787242909594793</v>
+        <v>1.036637828702324</v>
       </c>
       <c r="D18">
-        <v>1.005103905739665</v>
+        <v>1.042544163069709</v>
       </c>
       <c r="E18">
-        <v>0.9885571306152909</v>
+        <v>1.040441943822037</v>
       </c>
       <c r="F18">
-        <v>1.007554216116443</v>
+        <v>1.051177930286237</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038228374828263</v>
+        <v>1.036556801212355</v>
       </c>
       <c r="J18">
-        <v>1.006615885154996</v>
+        <v>1.042736306638774</v>
       </c>
       <c r="K18">
-        <v>1.018835116880421</v>
+        <v>1.045845747700411</v>
       </c>
       <c r="L18">
-        <v>1.002576350114181</v>
+        <v>1.043750674286943</v>
       </c>
       <c r="M18">
-        <v>1.021243815639849</v>
+        <v>1.054450496237138</v>
       </c>
       <c r="N18">
-        <v>1.005116261315951</v>
+        <v>1.018007050279272</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9792768346931155</v>
+        <v>1.036739730454376</v>
       </c>
       <c r="D19">
-        <v>1.005508021860221</v>
+        <v>1.042620262328654</v>
       </c>
       <c r="E19">
-        <v>0.9890611562357269</v>
+        <v>1.040539727313863</v>
       </c>
       <c r="F19">
-        <v>1.008008439498367</v>
+        <v>1.051265269041863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038376530926479</v>
+        <v>1.036577952773555</v>
       </c>
       <c r="J19">
-        <v>1.007006906699381</v>
+        <v>1.042810632626733</v>
       </c>
       <c r="K19">
-        <v>1.019168315240879</v>
+        <v>1.045907386230557</v>
       </c>
       <c r="L19">
-        <v>1.003005844657792</v>
+        <v>1.043833889761001</v>
       </c>
       <c r="M19">
-        <v>1.021626544338305</v>
+        <v>1.054523473995881</v>
       </c>
       <c r="N19">
-        <v>1.005253676941061</v>
+        <v>1.018032616254366</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.976794121679231</v>
+        <v>1.036283960062941</v>
       </c>
       <c r="D20">
-        <v>1.003692733618919</v>
+        <v>1.042279881395343</v>
       </c>
       <c r="E20">
-        <v>0.9867971062753287</v>
+        <v>1.040102405064636</v>
       </c>
       <c r="F20">
-        <v>1.005968235766101</v>
+        <v>1.050874643593591</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037710038833525</v>
+        <v>1.036483232281892</v>
       </c>
       <c r="J20">
-        <v>1.005249858895576</v>
+        <v>1.04247815364276</v>
       </c>
       <c r="K20">
-        <v>1.017670960061191</v>
+        <v>1.045631628660154</v>
       </c>
       <c r="L20">
-        <v>1.001076154664376</v>
+        <v>1.043461676075533</v>
       </c>
       <c r="M20">
-        <v>1.019906946519339</v>
+        <v>1.054197028359638</v>
       </c>
       <c r="N20">
-        <v>1.00463614560933</v>
+        <v>1.017918234069925</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9685094964206997</v>
+        <v>1.034801455714878</v>
       </c>
       <c r="D21">
-        <v>0.9976449922887606</v>
+        <v>1.04117243409971</v>
       </c>
       <c r="E21">
-        <v>0.9792543887907412</v>
+        <v>1.03868041332512</v>
       </c>
       <c r="F21">
-        <v>0.9991740757142537</v>
+        <v>1.049604216534093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035472276406816</v>
+        <v>1.036173076208202</v>
       </c>
       <c r="J21">
-        <v>0.9993854849461582</v>
+        <v>1.041395892754834</v>
       </c>
       <c r="K21">
-        <v>1.01267111879229</v>
+        <v>1.044733428242509</v>
       </c>
       <c r="L21">
-        <v>0.9946397484642761</v>
+        <v>1.042250604494815</v>
       </c>
       <c r="M21">
-        <v>1.014171112397101</v>
+        <v>1.053134450184561</v>
       </c>
       <c r="N21">
-        <v>1.002574131672476</v>
+        <v>1.017545571032801</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9631252068253056</v>
+        <v>1.033868750031116</v>
       </c>
       <c r="D22">
-        <v>0.993722982238459</v>
+        <v>1.040475487165951</v>
       </c>
       <c r="E22">
-        <v>0.9743623567078252</v>
+        <v>1.037786169635742</v>
       </c>
       <c r="F22">
-        <v>0.9947701688963687</v>
+        <v>1.048805079609683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034007815869773</v>
+        <v>1.03597637047014</v>
       </c>
       <c r="J22">
-        <v>0.9955737435424747</v>
+        <v>1.040714392323683</v>
       </c>
       <c r="K22">
-        <v>1.009419822158353</v>
+        <v>1.044167391799114</v>
       </c>
       <c r="L22">
-        <v>0.9904594029770727</v>
+        <v>1.041488398530488</v>
       </c>
       <c r="M22">
-        <v>1.010445946604676</v>
+        <v>1.052465379262496</v>
       </c>
       <c r="N22">
-        <v>1.001233262087316</v>
+        <v>1.017310649347741</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9659969742344441</v>
+        <v>1.034363252844446</v>
       </c>
       <c r="D23">
-        <v>0.9958139645269759</v>
+        <v>1.040845014270695</v>
       </c>
       <c r="E23">
-        <v>0.9769705855775486</v>
+        <v>1.038260243357525</v>
       </c>
       <c r="F23">
-        <v>0.9971178719649437</v>
+        <v>1.049228752959367</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034789816429102</v>
+        <v>1.036080809133695</v>
       </c>
       <c r="J23">
-        <v>0.9976067768515994</v>
+        <v>1.041075768041897</v>
       </c>
       <c r="K23">
-        <v>1.011154060144853</v>
+        <v>1.044467582504567</v>
       </c>
       <c r="L23">
-        <v>0.9926887359325902</v>
+        <v>1.041892531048095</v>
       </c>
       <c r="M23">
-        <v>1.012432500485288</v>
+        <v>1.052820160575669</v>
       </c>
       <c r="N23">
-        <v>1.001948477488276</v>
+        <v>1.017435244196262</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9769302167307008</v>
+        <v>1.03630880463798</v>
       </c>
       <c r="D24">
-        <v>1.003792208611231</v>
+        <v>1.042298437008958</v>
       </c>
       <c r="E24">
-        <v>0.9869211709361596</v>
+        <v>1.040126242112893</v>
       </c>
       <c r="F24">
-        <v>1.006080024829566</v>
+        <v>1.050895936388107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037746626034844</v>
+        <v>1.036488403355836</v>
       </c>
       <c r="J24">
-        <v>1.005346180995425</v>
+        <v>1.042496280451118</v>
       </c>
       <c r="K24">
-        <v>1.017753054497841</v>
+        <v>1.045646665178485</v>
       </c>
       <c r="L24">
-        <v>1.001181925518696</v>
+        <v>1.043481967225511</v>
       </c>
       <c r="M24">
-        <v>1.020001203133976</v>
+        <v>1.05421482607046</v>
       </c>
       <c r="N24">
-        <v>1.00467000263799</v>
+        <v>1.017924471469035</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9889294449159466</v>
+        <v>1.038564048128122</v>
       </c>
       <c r="D25">
-        <v>1.012577541589972</v>
+        <v>1.043982284433217</v>
       </c>
       <c r="E25">
-        <v>0.9978798000346555</v>
+        <v>1.042290947694295</v>
       </c>
       <c r="F25">
-        <v>1.015958218512099</v>
+        <v>1.052829079930753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04094705899892</v>
+        <v>1.036954023793399</v>
       </c>
       <c r="J25">
-        <v>1.013835208801415</v>
+        <v>1.04414026330906</v>
       </c>
       <c r="K25">
-        <v>1.024983695341281</v>
+        <v>1.047009319217289</v>
       </c>
       <c r="L25">
-        <v>1.010511118782118</v>
+        <v>1.0453232165328</v>
       </c>
       <c r="M25">
-        <v>1.028313753543371</v>
+        <v>1.055829036089069</v>
       </c>
       <c r="N25">
-        <v>1.007651966622062</v>
+        <v>1.018489545660981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04036098626811</v>
+        <v>0.9980170704476067</v>
       </c>
       <c r="D2">
-        <v>1.045323154005079</v>
+        <v>1.01924886427843</v>
       </c>
       <c r="E2">
-        <v>1.044017075773781</v>
+        <v>1.006206057095401</v>
       </c>
       <c r="F2">
-        <v>1.054369798885633</v>
+        <v>1.023467443450942</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037319484472095</v>
+        <v>1.043332311942959</v>
       </c>
       <c r="J2">
-        <v>1.045448009521716</v>
+        <v>1.020257252786166</v>
       </c>
       <c r="K2">
-        <v>1.048091716843552</v>
+        <v>1.030446390332209</v>
       </c>
       <c r="L2">
-        <v>1.046789310677181</v>
+        <v>1.017579603518885</v>
       </c>
       <c r="M2">
-        <v>1.057113197572296</v>
+        <v>1.034609241223804</v>
       </c>
       <c r="N2">
-        <v>1.018938139772754</v>
+        <v>1.009904628446512</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041664731200635</v>
+        <v>1.004366237454838</v>
       </c>
       <c r="D3">
-        <v>1.046295525882199</v>
+        <v>1.023917681903203</v>
       </c>
       <c r="E3">
-        <v>1.045270203998451</v>
+        <v>1.012037233810228</v>
       </c>
       <c r="F3">
-        <v>1.055487872252348</v>
+        <v>1.028727522777426</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037581422789206</v>
+        <v>1.044975164643729</v>
       </c>
       <c r="J3">
-        <v>1.046395572104535</v>
+        <v>1.024738578014766</v>
       </c>
       <c r="K3">
-        <v>1.048875086737022</v>
+        <v>1.034253411249134</v>
       </c>
       <c r="L3">
-        <v>1.04785243758687</v>
+        <v>1.022518378321197</v>
       </c>
       <c r="M3">
-        <v>1.058043721382023</v>
+        <v>1.039005564812747</v>
       </c>
       <c r="N3">
-        <v>1.01926265019584</v>
+        <v>1.011474357812637</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042507907013803</v>
+        <v>1.008368245260206</v>
       </c>
       <c r="D4">
-        <v>1.046924163470993</v>
+        <v>1.02686343081504</v>
       </c>
       <c r="E4">
-        <v>1.046080991296465</v>
+        <v>1.015718755552074</v>
       </c>
       <c r="F4">
-        <v>1.056211065048608</v>
+        <v>1.032048652022761</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037749336771969</v>
+        <v>1.045999348512018</v>
       </c>
       <c r="J4">
-        <v>1.047007808971803</v>
+        <v>1.027560286025722</v>
       </c>
       <c r="K4">
-        <v>1.049380812403989</v>
+        <v>1.036648098293949</v>
       </c>
       <c r="L4">
-        <v>1.048539726702988</v>
+        <v>1.02563109963707</v>
       </c>
       <c r="M4">
-        <v>1.05864497005411</v>
+        <v>1.041775073199746</v>
       </c>
       <c r="N4">
-        <v>1.019472075284093</v>
+        <v>1.012461641076845</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042862277363653</v>
+        <v>1.010026464499931</v>
       </c>
       <c r="D5">
-        <v>1.047188311979421</v>
+        <v>1.02808458811337</v>
       </c>
       <c r="E5">
-        <v>1.046421831873959</v>
+        <v>1.017245565464544</v>
       </c>
       <c r="F5">
-        <v>1.056515031065628</v>
+        <v>1.0334259930726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037819550638078</v>
+        <v>1.046420936147665</v>
       </c>
       <c r="J5">
-        <v>1.047264979983705</v>
+        <v>1.028728682955058</v>
       </c>
       <c r="K5">
-        <v>1.04959314151071</v>
+        <v>1.037639064668699</v>
       </c>
       <c r="L5">
-        <v>1.048828515571004</v>
+        <v>1.026920717284082</v>
       </c>
       <c r="M5">
-        <v>1.058897530100245</v>
+        <v>1.042922144171665</v>
       </c>
       <c r="N5">
-        <v>1.01955998530304</v>
+        <v>1.012870168594384</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042921771889431</v>
+        <v>1.010303500419889</v>
       </c>
       <c r="D6">
-        <v>1.047232656051278</v>
+        <v>1.028288637036907</v>
       </c>
       <c r="E6">
-        <v>1.04647905973366</v>
+        <v>1.017500726702486</v>
       </c>
       <c r="F6">
-        <v>1.0565660645801</v>
+        <v>1.033656173331215</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037831317752486</v>
+        <v>1.046491204965607</v>
       </c>
       <c r="J6">
-        <v>1.047308147673457</v>
+        <v>1.028923838231152</v>
       </c>
       <c r="K6">
-        <v>1.049628776243469</v>
+        <v>1.037804547270596</v>
       </c>
       <c r="L6">
-        <v>1.048876995907549</v>
+        <v>1.027136162322271</v>
       </c>
       <c r="M6">
-        <v>1.058939924073876</v>
+        <v>1.043113753575355</v>
       </c>
       <c r="N6">
-        <v>1.019574738040396</v>
+        <v>1.012938387275324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042512642519671</v>
+        <v>1.008390496090307</v>
       </c>
       <c r="D7">
-        <v>1.046927693548218</v>
+        <v>1.02687981469821</v>
       </c>
       <c r="E7">
-        <v>1.046085545678461</v>
+        <v>1.015739237671466</v>
       </c>
       <c r="F7">
-        <v>1.056215126907682</v>
+        <v>1.032067129104563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037750276454477</v>
+        <v>1.046005016659104</v>
       </c>
       <c r="J7">
-        <v>1.047011246139385</v>
+        <v>1.02757596728606</v>
       </c>
       <c r="K7">
-        <v>1.049383650646342</v>
+        <v>1.036661400684038</v>
       </c>
       <c r="L7">
-        <v>1.048543586090756</v>
+        <v>1.025648404967934</v>
       </c>
       <c r="M7">
-        <v>1.058648345576949</v>
+        <v>1.041790467135864</v>
       </c>
       <c r="N7">
-        <v>1.019473250461193</v>
+        <v>1.012467125127532</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04080168484398</v>
+        <v>1.000185585872778</v>
       </c>
       <c r="D8">
-        <v>1.045651886796342</v>
+        <v>1.020842794175128</v>
       </c>
       <c r="E8">
-        <v>1.044440592398926</v>
+        <v>1.008196352565788</v>
       </c>
       <c r="F8">
-        <v>1.054747715074198</v>
+        <v>1.025262746620986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037408334720537</v>
+        <v>1.043895767256367</v>
       </c>
       <c r="J8">
-        <v>1.045768430166127</v>
+        <v>1.021788406048101</v>
       </c>
       <c r="K8">
-        <v>1.048356702870511</v>
+        <v>1.03174764812479</v>
       </c>
       <c r="L8">
-        <v>1.047148730129633</v>
+        <v>1.019266431964235</v>
       </c>
       <c r="M8">
-        <v>1.057427851979467</v>
+        <v>1.036111054846113</v>
       </c>
       <c r="N8">
-        <v>1.01904792480516</v>
+        <v>1.010441189571072</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037783287892882</v>
+        <v>0.984852936339101</v>
       </c>
       <c r="D9">
-        <v>1.043399459913415</v>
+        <v>1.009589714439729</v>
       </c>
       <c r="E9">
-        <v>1.041541324112518</v>
+        <v>0.9941523434235334</v>
       </c>
       <c r="F9">
-        <v>1.052159761454409</v>
+        <v>1.012597478050545</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036793683662754</v>
+        <v>1.039865716931501</v>
       </c>
       <c r="J9">
-        <v>1.043571451920313</v>
+        <v>1.010952153499523</v>
       </c>
       <c r="K9">
-        <v>1.04653808714449</v>
+        <v>1.022529097912855</v>
       </c>
       <c r="L9">
-        <v>1.044685930710315</v>
+        <v>1.00734101264885</v>
       </c>
       <c r="M9">
-        <v>1.055270509724927</v>
+        <v>1.025489423661304</v>
       </c>
       <c r="N9">
-        <v>1.018294172452663</v>
+        <v>1.006639695028393</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035768485714018</v>
+        <v>0.9739503555225526</v>
       </c>
       <c r="D10">
-        <v>1.041894863266774</v>
+        <v>1.001615074533608</v>
       </c>
       <c r="E10">
-        <v>1.03960788397022</v>
+        <v>0.9842058843144242</v>
       </c>
       <c r="F10">
-        <v>1.050432878596051</v>
+        <v>1.003633662911422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036375743017186</v>
+        <v>1.036944201632086</v>
       </c>
       <c r="J10">
-        <v>1.042101982143152</v>
+        <v>1.003237034701025</v>
       </c>
       <c r="K10">
-        <v>1.045319531562788</v>
+        <v>1.01595522941196</v>
       </c>
       <c r="L10">
-        <v>1.043040641333361</v>
+        <v>0.9988662845484568</v>
       </c>
       <c r="M10">
-        <v>1.053827690541845</v>
+        <v>1.017937618925017</v>
       </c>
       <c r="N10">
-        <v>1.017788761611106</v>
+        <v>1.00392855044248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034895406270788</v>
+        <v>0.9690443030303513</v>
       </c>
       <c r="D11">
-        <v>1.041242628320379</v>
+        <v>0.9980349296719166</v>
       </c>
       <c r="E11">
-        <v>1.03877050627312</v>
+        <v>0.9797407342159783</v>
       </c>
       <c r="F11">
-        <v>1.049684718977425</v>
+        <v>0.9996120132004578</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03619282357129</v>
+        <v>1.035617326603215</v>
       </c>
       <c r="J11">
-        <v>1.04146451408124</v>
+        <v>0.9997640895586895</v>
       </c>
       <c r="K11">
-        <v>1.044790404771682</v>
+        <v>1.012993999732721</v>
       </c>
       <c r="L11">
-        <v>1.042327369396024</v>
+        <v>0.995055098125223</v>
       </c>
       <c r="M11">
-        <v>1.053201821500687</v>
+        <v>1.014541250095151</v>
       </c>
       <c r="N11">
-        <v>1.01756921486299</v>
+        <v>1.002707292369686</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03457100296521</v>
+        <v>0.9671918848188774</v>
       </c>
       <c r="D12">
-        <v>1.041000246893529</v>
+        <v>0.9966845826696561</v>
       </c>
       <c r="E12">
-        <v>1.038459435893605</v>
+        <v>0.9780565059664448</v>
       </c>
       <c r="F12">
-        <v>1.049406755601509</v>
+        <v>0.9980955126122012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036124585673831</v>
+        <v>1.035114587883981</v>
       </c>
       <c r="J12">
-        <v>1.041227550517587</v>
+        <v>0.9984527019031103</v>
       </c>
       <c r="K12">
-        <v>1.044593638617037</v>
+        <v>1.011875577687785</v>
       </c>
       <c r="L12">
-        <v>1.042062297808667</v>
+        <v>0.9936165397120589</v>
       </c>
       <c r="M12">
-        <v>1.05296917566062</v>
+        <v>1.013259290777315</v>
       </c>
       <c r="N12">
-        <v>1.0174875594283</v>
+        <v>1.00224603991245</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03464059328924</v>
+        <v>0.9675906357591576</v>
       </c>
       <c r="D13">
-        <v>1.041052243646868</v>
+        <v>0.9969751899548958</v>
       </c>
       <c r="E13">
-        <v>1.038526163000685</v>
+        <v>0.978418973029245</v>
       </c>
       <c r="F13">
-        <v>1.049466382603372</v>
+        <v>0.9984218611683754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036139236226692</v>
+        <v>1.035222884171169</v>
       </c>
       <c r="J13">
-        <v>1.041278388172411</v>
+        <v>0.9987349926090684</v>
       </c>
       <c r="K13">
-        <v>1.04463585583357</v>
+        <v>1.01211634134364</v>
       </c>
       <c r="L13">
-        <v>1.042119162520585</v>
+        <v>0.9939261806137075</v>
       </c>
       <c r="M13">
-        <v>1.053019086719674</v>
+        <v>1.013535222639867</v>
       </c>
       <c r="N13">
-        <v>1.01750507960495</v>
+        <v>1.002345333938103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034868593111414</v>
+        <v>0.9688918094566946</v>
       </c>
       <c r="D14">
-        <v>1.041222595298791</v>
+        <v>0.9979237370109559</v>
       </c>
       <c r="E14">
-        <v>1.038744793749669</v>
+        <v>0.9796020507743182</v>
       </c>
       <c r="F14">
-        <v>1.049661743748415</v>
+        <v>0.9994871313711942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036187188996452</v>
+        <v>1.035575975194868</v>
       </c>
       <c r="J14">
-        <v>1.041444930276651</v>
+        <v>0.9996561353363722</v>
       </c>
       <c r="K14">
-        <v>1.044774144619115</v>
+        <v>1.012901935538958</v>
       </c>
       <c r="L14">
-        <v>1.04230546117707</v>
+        <v>0.994936664010861</v>
       </c>
       <c r="M14">
-        <v>1.05318259440755</v>
+        <v>1.014435707696594</v>
       </c>
       <c r="N14">
-        <v>1.017562467365963</v>
+        <v>1.002669323769773</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03500905759316</v>
+        <v>0.9696894458443875</v>
       </c>
       <c r="D15">
-        <v>1.041327539630857</v>
+        <v>0.9985054034908482</v>
       </c>
       <c r="E15">
-        <v>1.038879495164492</v>
+        <v>0.9803275220352534</v>
       </c>
       <c r="F15">
-        <v>1.049782103703609</v>
+        <v>1.000140423102307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036216695370388</v>
+        <v>1.035792198639588</v>
       </c>
       <c r="J15">
-        <v>1.041547518495541</v>
+        <v>1.000220800577088</v>
       </c>
       <c r="K15">
-        <v>1.044859319044176</v>
+        <v>1.013383476161324</v>
       </c>
       <c r="L15">
-        <v>1.042420228533719</v>
+        <v>0.9955561676843222</v>
       </c>
       <c r="M15">
-        <v>1.053283314272143</v>
+        <v>1.014987778854345</v>
       </c>
       <c r="N15">
-        <v>1.017597811791327</v>
+        <v>1.00286791818718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035826414937871</v>
+        <v>0.9742718644003124</v>
       </c>
       <c r="D16">
-        <v>1.041938134307178</v>
+        <v>1.001849880916963</v>
       </c>
       <c r="E16">
-        <v>1.03966345379456</v>
+        <v>0.9844987298836186</v>
       </c>
       <c r="F16">
-        <v>1.050482522695609</v>
+        <v>1.003897477929518</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036387841664373</v>
+        <v>1.037030910298412</v>
       </c>
       <c r="J16">
-        <v>1.042144263761941</v>
+        <v>1.003464610829311</v>
       </c>
       <c r="K16">
-        <v>1.045354616531322</v>
+        <v>1.016149235531421</v>
       </c>
       <c r="L16">
-        <v>1.043087960678111</v>
+        <v>0.9991161012180056</v>
       </c>
       <c r="M16">
-        <v>1.053869203655861</v>
+        <v>1.018160244992558</v>
       </c>
       <c r="N16">
-        <v>1.017803317382514</v>
+        <v>1.004008561771128</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036338942906365</v>
+        <v>0.9770951915668762</v>
       </c>
       <c r="D17">
-        <v>1.042320946149929</v>
+        <v>1.003912797799181</v>
       </c>
       <c r="E17">
-        <v>1.040155158471306</v>
+        <v>0.9870715693231843</v>
       </c>
       <c r="F17">
-        <v>1.050921766190934</v>
+        <v>1.00621554350806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036494675047506</v>
+        <v>1.037790969176625</v>
       </c>
       <c r="J17">
-        <v>1.042518269120808</v>
+        <v>1.005462942082882</v>
       </c>
       <c r="K17">
-        <v>1.045664904846563</v>
+        <v>1.017852567561629</v>
       </c>
       <c r="L17">
-        <v>1.043506581651837</v>
+        <v>1.001310142726996</v>
       </c>
       <c r="M17">
-        <v>1.054236415554004</v>
+        <v>1.020115462399711</v>
       </c>
       <c r="N17">
-        <v>1.017932037532169</v>
+        <v>1.004711043371495</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036637828702324</v>
+        <v>0.9787242909594803</v>
       </c>
       <c r="D18">
-        <v>1.042544163069709</v>
+        <v>1.005103905739666</v>
       </c>
       <c r="E18">
-        <v>1.040441943822037</v>
+        <v>0.9885571306152922</v>
       </c>
       <c r="F18">
-        <v>1.051177930286237</v>
+        <v>1.007554216116444</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036556801212355</v>
+        <v>1.038228374828264</v>
       </c>
       <c r="J18">
-        <v>1.042736306638774</v>
+        <v>1.006615885154996</v>
       </c>
       <c r="K18">
-        <v>1.045845747700411</v>
+        <v>1.018835116880422</v>
       </c>
       <c r="L18">
-        <v>1.043750674286943</v>
+        <v>1.002576350114182</v>
       </c>
       <c r="M18">
-        <v>1.054450496237138</v>
+        <v>1.02124381563985</v>
       </c>
       <c r="N18">
-        <v>1.018007050279272</v>
+        <v>1.005116261315952</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036739730454376</v>
+        <v>0.9792768346931137</v>
       </c>
       <c r="D19">
-        <v>1.042620262328654</v>
+        <v>1.00550802186022</v>
       </c>
       <c r="E19">
-        <v>1.040539727313863</v>
+        <v>0.9890611562357248</v>
       </c>
       <c r="F19">
-        <v>1.051265269041863</v>
+        <v>1.008008439498365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036577952773555</v>
+        <v>1.038376530926478</v>
       </c>
       <c r="J19">
-        <v>1.042810632626733</v>
+        <v>1.007006906699379</v>
       </c>
       <c r="K19">
-        <v>1.045907386230557</v>
+        <v>1.019168315240877</v>
       </c>
       <c r="L19">
-        <v>1.043833889761001</v>
+        <v>1.00300584465779</v>
       </c>
       <c r="M19">
-        <v>1.054523473995881</v>
+        <v>1.021626544338303</v>
       </c>
       <c r="N19">
-        <v>1.018032616254366</v>
+        <v>1.00525367694106</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036283960062941</v>
+        <v>0.9767941216792311</v>
       </c>
       <c r="D20">
-        <v>1.042279881395343</v>
+        <v>1.00369273361892</v>
       </c>
       <c r="E20">
-        <v>1.040102405064636</v>
+        <v>0.9867971062753287</v>
       </c>
       <c r="F20">
-        <v>1.050874643593591</v>
+        <v>1.005968235766101</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036483232281892</v>
+        <v>1.037710038833526</v>
       </c>
       <c r="J20">
-        <v>1.04247815364276</v>
+        <v>1.005249858895576</v>
       </c>
       <c r="K20">
-        <v>1.045631628660154</v>
+        <v>1.017670960061191</v>
       </c>
       <c r="L20">
-        <v>1.043461676075533</v>
+        <v>1.001076154664376</v>
       </c>
       <c r="M20">
-        <v>1.054197028359638</v>
+        <v>1.019906946519339</v>
       </c>
       <c r="N20">
-        <v>1.017918234069925</v>
+        <v>1.00463614560933</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034801455714878</v>
+        <v>0.9685094964207003</v>
       </c>
       <c r="D21">
-        <v>1.04117243409971</v>
+        <v>0.9976449922887617</v>
       </c>
       <c r="E21">
-        <v>1.03868041332512</v>
+        <v>0.9792543887907422</v>
       </c>
       <c r="F21">
-        <v>1.049604216534093</v>
+        <v>0.9991740757142548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036173076208202</v>
+        <v>1.035472276406817</v>
       </c>
       <c r="J21">
-        <v>1.041395892754834</v>
+        <v>0.9993854849461592</v>
       </c>
       <c r="K21">
-        <v>1.044733428242509</v>
+        <v>1.012671118792291</v>
       </c>
       <c r="L21">
-        <v>1.042250604494815</v>
+        <v>0.9946397484642769</v>
       </c>
       <c r="M21">
-        <v>1.053134450184561</v>
+        <v>1.014171112397102</v>
       </c>
       <c r="N21">
-        <v>1.017545571032801</v>
+        <v>1.002574131672476</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033868750031116</v>
+        <v>0.9631252068253053</v>
       </c>
       <c r="D22">
-        <v>1.040475487165951</v>
+        <v>0.9937229822384588</v>
       </c>
       <c r="E22">
-        <v>1.037786169635742</v>
+        <v>0.9743623567078249</v>
       </c>
       <c r="F22">
-        <v>1.048805079609683</v>
+        <v>0.9947701688963689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03597637047014</v>
+        <v>1.034007815869773</v>
       </c>
       <c r="J22">
-        <v>1.040714392323683</v>
+        <v>0.9955737435424746</v>
       </c>
       <c r="K22">
-        <v>1.044167391799114</v>
+        <v>1.009419822158353</v>
       </c>
       <c r="L22">
-        <v>1.041488398530488</v>
+        <v>0.9904594029770725</v>
       </c>
       <c r="M22">
-        <v>1.052465379262496</v>
+        <v>1.010445946604676</v>
       </c>
       <c r="N22">
-        <v>1.017310649347741</v>
+        <v>1.001233262087316</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034363252844446</v>
+        <v>0.9659969742344443</v>
       </c>
       <c r="D23">
-        <v>1.040845014270695</v>
+        <v>0.9958139645269758</v>
       </c>
       <c r="E23">
-        <v>1.038260243357525</v>
+        <v>0.9769705855775487</v>
       </c>
       <c r="F23">
-        <v>1.049228752959367</v>
+        <v>0.9971178719649439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036080809133695</v>
+        <v>1.034789816429102</v>
       </c>
       <c r="J23">
-        <v>1.041075768041897</v>
+        <v>0.9976067768515994</v>
       </c>
       <c r="K23">
-        <v>1.044467582504567</v>
+        <v>1.011154060144853</v>
       </c>
       <c r="L23">
-        <v>1.041892531048095</v>
+        <v>0.9926887359325903</v>
       </c>
       <c r="M23">
-        <v>1.052820160575669</v>
+        <v>1.012432500485288</v>
       </c>
       <c r="N23">
-        <v>1.017435244196262</v>
+        <v>1.001948477488276</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03630880463798</v>
+        <v>0.9769302167306987</v>
       </c>
       <c r="D24">
-        <v>1.042298437008958</v>
+        <v>1.003792208611229</v>
       </c>
       <c r="E24">
-        <v>1.040126242112893</v>
+        <v>0.9869211709361576</v>
       </c>
       <c r="F24">
-        <v>1.050895936388107</v>
+        <v>1.006080024829564</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036488403355836</v>
+        <v>1.037746626034844</v>
       </c>
       <c r="J24">
-        <v>1.042496280451118</v>
+        <v>1.005346180995423</v>
       </c>
       <c r="K24">
-        <v>1.045646665178485</v>
+        <v>1.017753054497839</v>
       </c>
       <c r="L24">
-        <v>1.043481967225511</v>
+        <v>1.001181925518695</v>
       </c>
       <c r="M24">
-        <v>1.05421482607046</v>
+        <v>1.020001203133974</v>
       </c>
       <c r="N24">
-        <v>1.017924471469035</v>
+        <v>1.00467000263799</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038564048128122</v>
+        <v>0.9889294449159454</v>
       </c>
       <c r="D25">
-        <v>1.043982284433217</v>
+        <v>1.012577541589971</v>
       </c>
       <c r="E25">
-        <v>1.042290947694295</v>
+        <v>0.9978798000346546</v>
       </c>
       <c r="F25">
-        <v>1.052829079930753</v>
+        <v>1.015958218512098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036954023793399</v>
+        <v>1.04094705899892</v>
       </c>
       <c r="J25">
-        <v>1.04414026330906</v>
+        <v>1.013835208801413</v>
       </c>
       <c r="K25">
-        <v>1.047009319217289</v>
+        <v>1.02498369534128</v>
       </c>
       <c r="L25">
-        <v>1.0453232165328</v>
+        <v>1.010511118782117</v>
       </c>
       <c r="M25">
-        <v>1.055829036089069</v>
+        <v>1.02831375354337</v>
       </c>
       <c r="N25">
-        <v>1.018489545660981</v>
+        <v>1.007651966622062</v>
       </c>
     </row>
   </sheetData>
